--- a/Protokol MT-300 MT-300_TFA.xlsx
+++ b/Protokol MT-300 MT-300_TFA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kopri\Desktop\SOFTWARE Projekti\MT-300-TFA_SVN\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\AVSpekter\SOFTWARE Projekti\MT-300-TFA_SOFTWARE\MT-300-TFA_SVN.git\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="135">
   <si>
     <t>Command explained</t>
   </si>
@@ -39,24 +39,15 @@
     <t xml:space="preserve">Command MT310 to MT300-TFA </t>
   </si>
   <si>
-    <t>&gt;MA:ID:MT-300-TFA:CORD:START_NORMAL:(1.):1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>&gt;AM:ID:ACK::::1:CRC:#013#010</t>
   </si>
   <si>
-    <t>&gt;MA:ID:MT-300-TFA:CORD:STOP:(1.):1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>&gt;AM:31:MT-300-TFA:CORD:STOPPED::1:CRC:#013#010</t>
   </si>
   <si>
     <t>stop CORD meaurement</t>
   </si>
   <si>
-    <t>init and start of CORD measurement</t>
-  </si>
-  <si>
     <t>Additional command</t>
   </si>
   <si>
@@ -66,9 +57,6 @@
     <t>&gt;AM:ID:MT-300-TFA:CORD:RPE_RES_GET:(1):1:CRC:#013#010</t>
   </si>
   <si>
-    <t>&gt;MA:ID:MT-300-TFA:CORD:RPE_RES|(1.)::1:195:</t>
-  </si>
-  <si>
     <t>1. RPE in ohms %.2f</t>
   </si>
   <si>
@@ -123,18 +111,12 @@
     <t>Posible values</t>
   </si>
   <si>
-    <t>&gt;AM:ID:MT-300-TFA:CORD:RPE_START::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>&gt;AM:ID:MT-300-TFA:CORD:RPE_STOP::1:CRC:#013#010</t>
   </si>
   <si>
     <t>Stop RPE measurement</t>
   </si>
   <si>
-    <t>Request RPE resistance. Parameter (1) just for info and simulation. Measurement has to bee stopped before sending return value.</t>
-  </si>
-  <si>
     <t>&gt;AM:ID:MT-300-TFA:CORD:RISO_START::1:CRC:#013#010</t>
   </si>
   <si>
@@ -148,12 +130,306 @@
   </si>
   <si>
     <t>Request RPE resistance. Parameter (1) just for info and simulation.</t>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:CORD:RPE_L_START::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>Start RPE low current measurement</t>
+  </si>
+  <si>
+    <t>&gt;MP:01:RCD:EVENT:READY_ON::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;MP:01:RCD:EVENT:READY_OFF::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;MP:01:RCD:EVENT:READY_REVERSED::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;MP:01:RCD:EVENT:START_FAILED::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;MP:01:RCD:EVENT:BAD_FUSE::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;MP:01:RCD:EVENT:MESUREMENT_FAILED::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:CORD:RPE_RES|(1.)::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:CORD:RISO_RES|(1.)::1:CRC:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request RPE resistance. Parameter (1) just for info and simulation. </t>
+  </si>
+  <si>
+    <t>1. RISO in Mohms %.3f</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:CORD:START_C_W:(1.):1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>start correct wiring for CORD measurement</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:CORD:INIT:(1.):1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:CORD:STOP::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>init CORD test, runs mains test and return its result</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:CORD:START_CONT::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:CORD:START_ALL-PE::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:CORD:START_ONE-PE::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:CORD:START_PH_PH::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:CORD:RISO_ONE-PE|(1),(2)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1. Pass</t>
+  </si>
+  <si>
+    <t>Riso one phase to PE fault</t>
+  </si>
+  <si>
+    <t>"L1-PE_F"</t>
+  </si>
+  <si>
+    <t>"N-PE_F"</t>
+  </si>
+  <si>
+    <t>"L2-PE_F"</t>
+  </si>
+  <si>
+    <t>"L3-PE_F"</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:CORD:RISO_STARTED::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:CORD:RISO_STOPPED::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:CORD:RPE_L_STARTED::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:CORD:RPE_H_STARTED::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:CORD:RPE_H_START::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>Start RPE high current measurement</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:CORD:RPE_STOPPED::1:CRC:</t>
+  </si>
+  <si>
+    <t>1. Pass, 2. Riso one phase to PE fault-s</t>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:CORD:CONT|(1),(2)|(3)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>Measured wire</t>
+  </si>
+  <si>
+    <t>"L1"</t>
+  </si>
+  <si>
+    <t>"L2"</t>
+  </si>
+  <si>
+    <t>"L3"</t>
+  </si>
+  <si>
+    <t>"PE"</t>
+  </si>
+  <si>
+    <t>1. Pass, 2. Measured wire, 3. Value in ohms %.3f</t>
+  </si>
+  <si>
+    <t>Transmitt Cord Riso Phases to PE result (up to 4 fault conditions). When return message is recieved, measurement has finished.</t>
+  </si>
+  <si>
+    <t>Transmitt Cord Continuity results. When return message is recieved, measurement has finished.</t>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:CORD:RISO_ALL-PE|(1)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:CORD:RISO_PH-PH|(1),(2)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1. Pass, 2. Riso phase to phase fault-s</t>
+  </si>
+  <si>
+    <t>Riso phase to phase fault</t>
+  </si>
+  <si>
+    <t>"L1-N_F"</t>
+  </si>
+  <si>
+    <t>"L2-N_F"</t>
+  </si>
+  <si>
+    <t>"L3-N_F"</t>
+  </si>
+  <si>
+    <t>"L1-L3_F"</t>
+  </si>
+  <si>
+    <t>"L1-L2_F"</t>
+  </si>
+  <si>
+    <t>"L2-L3_F"</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>"PASS"</t>
+  </si>
+  <si>
+    <t>"FAIL"</t>
+  </si>
+  <si>
+    <t>Transmitt Cord Riso Phases to Phase result (up to 6 fault conditions). When return message is recieved, measurement has finished.</t>
+  </si>
+  <si>
+    <t>Transmitt Cord All Phases to PE result. When return message is recieved, measurement has finished.</t>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:CORD:INITIATED::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:CORD:CW,(1)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1. CW failures</t>
+  </si>
+  <si>
+    <t>CW failures</t>
+  </si>
+  <si>
+    <t>L1_L2_CRIS</t>
+  </si>
+  <si>
+    <t>L1_L3_CRIS</t>
+  </si>
+  <si>
+    <t>L2_L3_CRIS</t>
+  </si>
+  <si>
+    <t>L1_N_CRIS</t>
+  </si>
+  <si>
+    <t>L1_PE_CRIS</t>
+  </si>
+  <si>
+    <t>L2_N_CRIS</t>
+  </si>
+  <si>
+    <t>L2_PE_CRIS</t>
+  </si>
+  <si>
+    <t>L3_N_CRIS</t>
+  </si>
+  <si>
+    <t>L3_PE_CRIS</t>
+  </si>
+  <si>
+    <t>N_PE_CRIS</t>
+  </si>
+  <si>
+    <t>L1_L2_SHOR</t>
+  </si>
+  <si>
+    <t>L1_L3_SHOR</t>
+  </si>
+  <si>
+    <t>L2_L3_SHOR</t>
+  </si>
+  <si>
+    <t>L1_N_SHOR</t>
+  </si>
+  <si>
+    <t>L1_PE_SHOR</t>
+  </si>
+  <si>
+    <t>L2_N_SHOR</t>
+  </si>
+  <si>
+    <t>L2_PE_SHOR</t>
+  </si>
+  <si>
+    <t>L3_N_SHOR</t>
+  </si>
+  <si>
+    <t>L3_PE_SHOR</t>
+  </si>
+  <si>
+    <t>N_PE_SHOR</t>
+  </si>
+  <si>
+    <t>MULTIFLT</t>
+  </si>
+  <si>
+    <t>CROS_N_SHOR</t>
+  </si>
+  <si>
+    <t>CROS_N_OPEN</t>
+  </si>
+  <si>
+    <t>SHOR_N_OPEN</t>
+  </si>
+  <si>
+    <t>MULTI_SHOR</t>
+  </si>
+  <si>
+    <t>MULTI_CROS</t>
+  </si>
+  <si>
+    <t>MULTI_OPEN</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>L1_OPEN</t>
+  </si>
+  <si>
+    <t>L2_OPEN</t>
+  </si>
+  <si>
+    <t>L3_OPEN</t>
+  </si>
+  <si>
+    <t>N_OPEN</t>
+  </si>
+  <si>
+    <t>PE_OPEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +481,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -218,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -229,9 +511,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -247,9 +530,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pisarna">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -287,7 +570,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pisarna">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -359,7 +642,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pisarna">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -533,11 +816,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:AP57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,9 +833,12 @@
     <col min="6" max="6" width="115" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="14" width="15.85546875" customWidth="1"/>
+    <col min="15" max="30" width="13.42578125" customWidth="1"/>
+    <col min="31" max="38" width="14.85546875" customWidth="1"/>
+    <col min="39" max="42" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -566,16 +852,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -583,144 +869,463 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="4"/>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R4" t="s">
+        <v>110</v>
+      </c>
+      <c r="S4" t="s">
+        <v>111</v>
+      </c>
+      <c r="T4" t="s">
+        <v>112</v>
+      </c>
+      <c r="U4" t="s">
+        <v>113</v>
+      </c>
+      <c r="V4" t="s">
+        <v>114</v>
+      </c>
+      <c r="W4" t="s">
+        <v>115</v>
+      </c>
+      <c r="X4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="D7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="D9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L4" t="s">
+      <c r="E28" s="1"/>
+      <c r="F28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="1" t="s">
+      <c r="F31" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="s">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" t="s">
-        <v>41</v>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Protokol MT-300 MT-300_TFA.xlsx
+++ b/Protokol MT-300 MT-300_TFA.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="687"/>
   </bookViews>
   <sheets>
-    <sheet name="MT300-TFA CORD" sheetId="30" r:id="rId1"/>
+    <sheet name="MT300-TFA" sheetId="30" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="151">
   <si>
     <t>Command explained</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Returned answer</t>
   </si>
   <si>
-    <t>ACKnowledge command return</t>
-  </si>
-  <si>
     <t>Additional commands</t>
   </si>
   <si>
@@ -39,9 +36,6 @@
     <t xml:space="preserve">Command MT310 to MT300-TFA </t>
   </si>
   <si>
-    <t>&gt;AM:ID:ACK::::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>&gt;AM:31:MT-300-TFA:CORD:STOPPED::1:CRC:#013#010</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>&gt;MA:ID:MT-300-TFA:CORD:START_C_W:(1.):1:CRC:#013#010</t>
   </si>
   <si>
-    <t>start correct wiring for CORD measurement</t>
-  </si>
-  <si>
     <t>&gt;MA:ID:MT-300-TFA:CORD:INIT:(1.):1:CRC:#013#010</t>
   </si>
   <si>
@@ -261,12 +252,6 @@
     <t>1. Pass, 2. Measured wire, 3. Value in ohms %.3f</t>
   </si>
   <si>
-    <t>Transmitt Cord Riso Phases to PE result (up to 4 fault conditions). When return message is recieved, measurement has finished.</t>
-  </si>
-  <si>
-    <t>Transmitt Cord Continuity results. When return message is recieved, measurement has finished.</t>
-  </si>
-  <si>
     <t>&gt;AM:ID:MT-300-TFA:CORD:RISO_ALL-PE|(1)::1:CRC:#013#010</t>
   </si>
   <si>
@@ -306,12 +291,6 @@
     <t>"FAIL"</t>
   </si>
   <si>
-    <t>Transmitt Cord Riso Phases to Phase result (up to 6 fault conditions). When return message is recieved, measurement has finished.</t>
-  </si>
-  <si>
-    <t>Transmitt Cord All Phases to PE result. When return message is recieved, measurement has finished.</t>
-  </si>
-  <si>
     <t>&gt;AM:ID:MT-300-TFA:CORD:INITIATED::1:CRC:#013#010</t>
   </si>
   <si>
@@ -424,13 +403,332 @@
   </si>
   <si>
     <t>PE_OPEN</t>
+  </si>
+  <si>
+    <t>CABLE EXTENSIONS</t>
+  </si>
+  <si>
+    <t>MAIN FUNCTION CALL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitt Cord </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Correct wiring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> results. When return message is recieved, measurement has finished.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitt Cord </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Continuity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> results. When return message is recieved, measurement has finished.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitt Cord </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All Phases to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> result. When return message is recieved, measurement has finished.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitt Cord Riso </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phases to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> result (up to 4 fault conditions). When return message is recieved, measurement has finished.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitt Cord Riso </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phases to Phase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> result (up to 6 fault conditions). When return message is recieved, measurement has finished.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Correct wirin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g for CORD measurement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Continuity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CORD measurement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> All Phases to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CORD measurement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Phases to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CORD measurement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Phases to Phase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CORD measurement</t>
+    </r>
+  </si>
+  <si>
+    <t>INTERMEDIATE COMMANDS</t>
+  </si>
+  <si>
+    <t>MACHINES</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:MACH:INIT:(1.):1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:MACH:INITIATED::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>init MACH test, runs mains test and return its result</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:MACH:RPE_STARTED:(1.):1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:MACH:RPE_STOPPED:(1.):1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:MACH:START_RPE::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:MACH:STOP_RPE::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>stop RPE 30A MACH measurement</t>
+  </si>
+  <si>
+    <t>start RPE 30A MACH measurement, when return command is transmitted everithing is set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,8 +753,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,6 +794,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -500,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -508,10 +827,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,521 +1154,660 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP57"/>
+  <dimension ref="A1:AO61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.5703125" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="71.140625" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" customWidth="1"/>
-    <col min="6" max="6" width="115" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="14" width="15.85546875" customWidth="1"/>
-    <col min="15" max="30" width="13.42578125" customWidth="1"/>
-    <col min="31" max="38" width="14.85546875" customWidth="1"/>
-    <col min="39" max="42" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="71.140625" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" customWidth="1"/>
+    <col min="5" max="5" width="115" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="13" width="15.85546875" customWidth="1"/>
+    <col min="14" max="29" width="13.42578125" customWidth="1"/>
+    <col min="30" max="37" width="14.85546875" customWidth="1"/>
+    <col min="38" max="41" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:41" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>103</v>
+      </c>
+      <c r="R6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S6" t="s">
+        <v>105</v>
+      </c>
+      <c r="T6" t="s">
+        <v>106</v>
+      </c>
+      <c r="U6" t="s">
+        <v>107</v>
+      </c>
+      <c r="V6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W6" t="s">
+        <v>109</v>
+      </c>
+      <c r="X6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="C7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="C15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:13" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="D4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" t="s">
-        <v>104</v>
-      </c>
-      <c r="M4" t="s">
-        <v>105</v>
-      </c>
-      <c r="N4" t="s">
-        <v>106</v>
-      </c>
-      <c r="O4" t="s">
-        <v>107</v>
-      </c>
-      <c r="P4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>109</v>
-      </c>
-      <c r="R4" t="s">
-        <v>110</v>
-      </c>
-      <c r="S4" t="s">
-        <v>111</v>
-      </c>
-      <c r="T4" t="s">
-        <v>112</v>
-      </c>
-      <c r="U4" t="s">
-        <v>113</v>
-      </c>
-      <c r="V4" t="s">
-        <v>114</v>
-      </c>
-      <c r="W4" t="s">
-        <v>115</v>
-      </c>
-      <c r="X4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="D7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" t="s">
-        <v>90</v>
-      </c>
-      <c r="N7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="D9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="D11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="D13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="12"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F25" t="s">
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="1"/>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52" s="6" t="s">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="6" t="s">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D54" s="6" t="s">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="6" t="s">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D57" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I1:N1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Protokol MT-300 MT-300_TFA.xlsx
+++ b/Protokol MT-300 MT-300_TFA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="180">
   <si>
     <t>Command explained</t>
   </si>
@@ -706,12 +706,6 @@
     <t>init MACH test, runs mains test and return its result</t>
   </si>
   <si>
-    <t>&gt;MA:ID:MT-300-TFA:MACH:RPE_STARTED:(1.):1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;MA:ID:MT-300-TFA:MACH:RPE_STOPPED:(1.):1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>&gt;MA:ID:MT-300-TFA:MACH:START_RPE::1:CRC:#013#010</t>
   </si>
   <si>
@@ -722,6 +716,199 @@
   </si>
   <si>
     <t>start RPE 30A MACH measurement, when return command is transmitted everithing is set</t>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:MACH:RPE_STARTED::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:MACH:RPE_STOPPED::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:MACH:START_ALL-PE::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:MACH:START_ONE-PE::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitt MACH </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All Phases to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> result. When return message is recieved, measurement has finished.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> All Phases to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MACH measurement</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:MACH:RISO_ALL-PE|(1)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <r>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Phases to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MACH measurement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitt MACH Riso </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phases to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> result (up to 4 fault conditions). When return message is recieved, measurement has finished.</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:MACH:RISO_ONE-PE|(1),(2)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:CORD:ALL-PE_STARTED::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:CORD:CONT_STARTED::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:MACH:ALL-PE_STARTED::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:CORD:CW_STARTED::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:MACH:URES_STARTED::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:MACH:ONE-PE_STARTED::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:CORD:ONE-PE_STARTED::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:CORD:PH-PH_STARTED::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:MACH:START_URES:(1.):1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1. URES Phase voltage to measure</t>
+  </si>
+  <si>
+    <t>URES Phase voltage to measure</t>
+  </si>
+  <si>
+    <t>"L1-PE"</t>
+  </si>
+  <si>
+    <t>"L2-PE"</t>
+  </si>
+  <si>
+    <t>"L3-PE"</t>
+  </si>
+  <si>
+    <t>"L1-N"</t>
+  </si>
+  <si>
+    <t>"L2-N"</t>
+  </si>
+  <si>
+    <t>"L3-N"</t>
+  </si>
+  <si>
+    <t>&gt;MA:ID:MT-300-TFA:MACH:URES_OPEN::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AM:ID:MT-300-TFA:MACH:URES_OPENED::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>start dedicated URES measurement, when started is returned all is set</t>
+  </si>
+  <si>
+    <t>open input contactors at peak input voltage. Return when the contactors are opened.</t>
   </si>
 </sst>
 </file>
@@ -1157,8 +1344,8 @@
   <dimension ref="A1:AO61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,7 +1355,7 @@
     <col min="3" max="3" width="71.140625" customWidth="1"/>
     <col min="4" max="4" width="54.7109375" customWidth="1"/>
     <col min="5" max="5" width="115" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
     <col min="8" max="13" width="15.85546875" customWidth="1"/>
     <col min="14" max="29" width="13.42578125" customWidth="1"/>
     <col min="30" max="37" width="14.85546875" customWidth="1"/>
@@ -1276,6 +1463,9 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="E6" t="s">
         <v>135</v>
       </c>
@@ -1417,6 +1607,9 @@
         <v>51</v>
       </c>
       <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E8" t="s">
         <v>136</v>
       </c>
@@ -1474,6 +1667,9 @@
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="E10" t="s">
         <v>137</v>
       </c>
@@ -1521,8 +1717,32 @@
       <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="E12" t="s">
         <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" t="s">
+        <v>170</v>
+      </c>
+      <c r="I12" t="s">
+        <v>171</v>
+      </c>
+      <c r="J12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K12" t="s">
+        <v>173</v>
+      </c>
+      <c r="L12" t="s">
+        <v>174</v>
+      </c>
+      <c r="M12" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
@@ -1540,6 +1760,9 @@
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="E14" t="s">
         <v>139</v>
@@ -1741,34 +1964,94 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="12"/>
+      <c r="A36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="12"/>
+      <c r="C37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="12"/>
+      <c r="A38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="5" t="s">
